--- a/Parts/parts - Retired Parts, Comparative List.xlsx
+++ b/Parts/parts - Retired Parts, Comparative List.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\BrickLink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\BrickLink\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8E284-062B-4875-BFFF-71B0EC79EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1E918-7F55-4CB6-8534-1BFCAF872381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Retired Parts List" sheetId="1" r:id="rId1"/>
+    <sheet name="Colour Availability" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Part_ID</t>
   </si>
@@ -159,10 +160,28 @@
     <t>Ship Hull</t>
   </si>
   <si>
-    <t>Cockpit Nose?!</t>
-  </si>
-  <si>
-    <t>Model Team?!</t>
+    <t>"Model Team"?!</t>
+  </si>
+  <si>
+    <t>"Cockpit Nose"?!</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Light Gray</t>
+  </si>
+  <si>
+    <t>Dark Gray</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>etc.</t>
   </si>
 </sst>
 </file>
@@ -216,7 +235,115 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -271,6 +398,42 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -290,6 +453,24 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -309,132 +490,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -454,6 +509,170 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,20 +688,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F4E4933-54DA-48CF-8956-576DBBF5760D}" name="Tabla1" displayName="Tabla1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F4E4933-54DA-48CF-8956-576DBBF5760D}" name="Tabla1" displayName="Tabla1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:K10" xr:uid="{2F4E4933-54DA-48CF-8956-576DBBF5760D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4BDF5FE5-FF46-427C-8846-FC4CB402FD0E}" name="Part_ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0A8CB8B4-AC6D-4691-8FB3-D95E88EFE2C3}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D9D7CA17-536D-4939-8657-62F2B7C3ECD0}" name="Subcategory" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E23A2197-3601-4A83-8D1D-DCD5ACA5A614}" name="Custom_Reference" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A1831B21-4796-40DF-8092-23BB3E45C2A1}" name="BrickLink_Category" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{1523E4C4-5D1C-4192-880A-FA85B681E285}" name="BrickLink_Name" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5CC8316B-F412-4049-90FE-7E31253091E7}" name="Rebrickable_Category" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B5443DBD-6C20-4681-8928-D62B9B797275}" name="Rebrickable_Name" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{3CB7ABCA-F357-4676-919A-1725EE1D8248}" name="First_Year" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0ADB8E1C-8A5F-4144-BE20-3B208E5F2596}" name="Last_Year" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{30240BB7-0AD2-4C47-BF7D-68670F51EE68}" name="WeBrick_Availability" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4BDF5FE5-FF46-427C-8846-FC4CB402FD0E}" name="Part_ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0A8CB8B4-AC6D-4691-8FB3-D95E88EFE2C3}" name="Category" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{D9D7CA17-536D-4939-8657-62F2B7C3ECD0}" name="Subcategory" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{E23A2197-3601-4A83-8D1D-DCD5ACA5A614}" name="Custom_Reference" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A1831B21-4796-40DF-8092-23BB3E45C2A1}" name="BrickLink_Category" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1523E4C4-5D1C-4192-880A-FA85B681E285}" name="BrickLink_Name" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5CC8316B-F412-4049-90FE-7E31253091E7}" name="Rebrickable_Category" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{B5443DBD-6C20-4681-8928-D62B9B797275}" name="Rebrickable_Name" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{3CB7ABCA-F357-4676-919A-1725EE1D8248}" name="First_Year" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{0ADB8E1C-8A5F-4144-BE20-3B208E5F2596}" name="Last_Year" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{30240BB7-0AD2-4C47-BF7D-68670F51EE68}" name="WeBrick_Availability" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{52E90D61-DFFC-4820-A839-9527F48F296E}" name="Tabla2" displayName="Tabla2" ref="A1:I10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:I10" xr:uid="{52E90D61-DFFC-4820-A839-9527F48F296E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B15530ED-B6D7-44F5-92D9-D58DF6CD50A3}" name="Part_ID" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{D258D783-BA04-4C1C-8213-80225E7C283F}" name="BrickLink_Name" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{DE842975-1E30-464A-A424-B453BA786FFF}" name="Rebrickable_Name" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{11EB2962-537B-48CD-854C-C7E02B45BA39}" name="Black" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{0F6702FE-4177-4BE4-BD5D-A109A680BE1A}" name="White" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{EDE164D8-ED5C-452C-95B7-A63F7A27613C}" name="Light Gray" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{DD4F6260-8179-47C5-83BD-26DBA8D0EE50}" name="Dark Gray" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{83462ACC-1C58-41BA-A7E1-87692FCC5B44}" name="Blue" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{E40778F3-BA6B-4603-8B06-2BFABDA98C15}" name="etc." dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -754,7 +991,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +1005,7 @@
     <col min="9" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1043,7 +1280,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -1086,4 +1323,202 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E75206-8D41-46FC-AD52-DA7EC760E3F0}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="3" width="60.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>6039</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>6037</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>6042</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>6043</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>4261</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>32186</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>2336</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>